--- a/ENADEL 2023/Datos/Diccionario ENADEL 2023.xlsx
+++ b/ENADEL 2023/Datos/Diccionario ENADEL 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mintrab-my.sharepoint.com/personal/csalazar_mintrab_gob_cl/Documents/Observatorio Laboral/ENADEL/Consultoría/ENADEL 2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2047" documentId="8_{D49A582D-2DCC-4634-9F78-E563DDDD4F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69E8E40-9889-4122-885A-38B2CD878E1F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92E7DEC1-9313-4684-B082-10B33FB7779A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92E7DEC1-9313-4684-B082-10B33FB7779A}"/>
   </bookViews>
   <sheets>
     <sheet name="long" sheetId="7" r:id="rId1"/>
@@ -3220,22 +3220,22 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:XFD74"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>86</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>90</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>92</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>94</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>96</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>99</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>101</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>105</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>107</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>109</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>111</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>113</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>115</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>117</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>119</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>121</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>866</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>867</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>868</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>869</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>127</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>134</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>135</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>136</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>137</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>138</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>139</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>141</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>6</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>7</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>149</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>151</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>156</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>158</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>160</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>162</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>164</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>166</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>169</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>172</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>178</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>180</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>183</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>184</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>185</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>186</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>188</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>190</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>192</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>194</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>196</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>198</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>200</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>202</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>204</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>918</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>919</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>920</v>
       </c>
@@ -4992,18 +4992,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="137.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="137.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>55</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>59</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>61</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>65</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>67</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>73</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>75</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>77</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>79</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>81</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>84</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>86</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>88</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>94</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>96</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>98</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>99</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>101</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>103</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>105</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>107</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>109</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>111</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>113</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>115</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>117</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>119</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>121</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>866</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>867</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>868</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>869</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>125</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>127</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>129</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>130</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>131</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>133</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>134</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>135</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>136</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>137</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>138</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>779</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>780</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>781</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>782</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>783</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>784</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>785</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>786</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>787</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>788</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>789</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>790</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>791</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>792</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>793</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>794</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>795</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>796</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>797</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>798</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>799</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>800</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>801</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>897</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>802</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>803</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>804</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>805</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>806</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>807</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>808</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>862</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>863</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>841</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>853</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>854</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>852</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>855</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>856</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>861</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>860</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>857</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>858</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>859</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>180</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>182</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>183</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>184</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>185</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>186</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>188</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>190</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>192</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>194</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>196</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>198</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>200</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>202</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>204</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>918</v>
       </c>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>919</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>920</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E134" s="10">
         <f>SUM(E2:E133)</f>
         <v>881</v>
@@ -7666,13 +7666,13 @@
       <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
     <col min="2" max="2" width="139" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>110</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>210</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>310</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1111</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1112</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1113</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1114</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1120</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1211</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1212</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1213</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1219</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1221</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1222</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1223</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1311</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1312</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1321</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1322</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1323</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1324</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1330</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1341</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1342</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1343</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1344</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1345</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1346</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1349</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1411</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1412</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1420</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1431</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1439</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>2111</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2112</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2113</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2114</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2120</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2131</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>2132</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2133</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2134</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2141</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>2142</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2143</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>2144</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2145</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2146</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2147</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2149</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2151</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>2152</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2153</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>2161</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>2162</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2163</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2164</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>2165</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2166</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2211</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2212</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2221</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2222</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2230</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2241</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2242</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>2243</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>2244</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>2245</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>2246</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>2247</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>2248</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>2249</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2310</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2320</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>2330</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2341</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2342</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2351</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2352</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2353</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2354</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2355</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2356</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2359</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2411</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2412</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2413</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2421</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2422</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2423</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2424</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>2431</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>2432</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>2433</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2434</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>2511</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>2512</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2513</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>2514</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>2519</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>2521</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>2522</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>2523</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>2529</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>2611</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>2612</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>2619</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>2621</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>2622</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>2631</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>2632</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>2633</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>2634</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>2635</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>2636</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>2641</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>2642</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>2643</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>2651</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>2652</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>2653</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>2654</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>2655</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>2656</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>2659</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>3111</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>3112</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>3113</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>3114</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>3115</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>3116</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>3117</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>3118</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>3119</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>3121</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>3122</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>3123</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>3131</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>3132</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>3133</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>3134</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>3135</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>3139</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>3141</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>3142</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>3143</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>3151</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>3152</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3153</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>3154</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>3155</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>3211</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>3212</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>3213</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>3214</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>3215</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>3216</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>3221</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>3222</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>3223</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>3231</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>3232</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>3240</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>3251</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>3252</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>3253</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>3254</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>3255</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>3256</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3257</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>3258</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>3259</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>3311</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>3312</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>3313</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>3314</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>3315</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>3321</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>3322</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>3323</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>3324</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>3331</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>3332</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>3333</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>3334</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>3339</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>3341</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>3342</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>3343</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>3344</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>3351</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>3352</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>3353</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>3354</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>3355</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>3359</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>3411</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>3412</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>3413</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>3421</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>3422</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>3423</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>3431</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>3432</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>3433</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>3434</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>3435</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>3439</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>3511</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>3512</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>3513</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>3514</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>3521</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>3522</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>3611</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>3612</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>4110</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>4120</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>4131</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>4132</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>4211</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>4212</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>4213</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>4214</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>4221</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>4222</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>4223</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>4224</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>4225</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>4226</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>4227</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>4229</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>4311</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>4312</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>4313</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>4321</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>4322</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>4323</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>4411</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>4412</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>4413</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>4414</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>4415</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>4416</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>4419</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>5111</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>5112</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>5113</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>5120</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>5131</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>5132</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>5141</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>5142</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>5151</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>5152</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>5153</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>5161</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>5162</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>5163</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>5164</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>5165</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>5169</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>5211</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>5212</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>5221</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>5222</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>5223</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>5230</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>5241</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>5242</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>5243</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>5244</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>5245</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>5246</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>5249</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>5311</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>5312</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>5321</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>5322</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>5329</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>5411</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>5412</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>5413</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>5414</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>5419</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>6111</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>6112</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>6113</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>6114</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>6121</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>6122</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>6123</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>6129</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>6130</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>6210</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>6221</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>6222</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>6223</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>6224</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>6310</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>6320</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>6330</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>6340</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>7111</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>7112</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>7113</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>7114</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>7115</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>7119</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>7121</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>7122</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>7123</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>7124</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>7125</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>7126</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>7127</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>7131</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>7132</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>7133</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>7211</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>7212</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>7213</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>7214</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>7215</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>7221</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>7222</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>7223</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>7224</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>7231</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>7232</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>7233</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>7234</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>7311</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>7312</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>7313</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>7314</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>7315</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>7316</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>7317</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>7318</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>7319</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>7321</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>7322</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>7323</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>7411</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>7412</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>7413</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>7421</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>7422</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>7511</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>7512</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>7513</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>7514</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>7515</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>7516</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>7521</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>7522</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>7523</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>7531</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>7532</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>7533</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>7534</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>7535</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>7536</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>7541</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>7542</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>7543</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>7544</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>7549</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>8111</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>8112</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>8113</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>8114</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>8121</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>8122</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>8131</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>8132</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>8141</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>8142</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>8143</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>8151</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>8152</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>8153</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>8154</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>8155</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>8156</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>8157</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>8159</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>8160</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>8171</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>8172</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>8181</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>8182</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>8183</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>8189</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>8211</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>8212</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>8219</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>8311</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>8312</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>8321</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>8322</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>8331</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>8332</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>8341</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>8342</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>8343</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>8344</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>8350</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>9111</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>9112</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>9121</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>9122</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>9123</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>9129</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>9211</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>9212</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>9213</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>9214</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>9215</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>9216</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>9311</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>9312</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>9313</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>9321</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>9329</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>9331</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>9332</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>9333</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>9334</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>9411</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>9412</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>9510</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>9520</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>9611</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>9612</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>9613</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>9621</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>9622</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>9623</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>9624</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>9629</v>
       </c>
@@ -11238,14 +11238,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="42e3d878-6b65-44e5-88a5-c5df4bc98ec9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9690b30c-8917-4905-b278-b95e7851aa8c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11484,27 +11482,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="42e3d878-6b65-44e5-88a5-c5df4bc98ec9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9690b30c-8917-4905-b278-b95e7851aa8c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AABB43-689E-44F6-B516-CD8348165418}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D1E3D1-88BB-45FB-968F-8C1D4E08B34C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="42e3d878-6b65-44e5-88a5-c5df4bc98ec9"/>
-    <ds:schemaRef ds:uri="9690b30c-8917-4905-b278-b95e7851aa8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11529,9 +11520,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49D1E3D1-88BB-45FB-968F-8C1D4E08B34C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AABB43-689E-44F6-B516-CD8348165418}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="42e3d878-6b65-44e5-88a5-c5df4bc98ec9"/>
+    <ds:schemaRef ds:uri="9690b30c-8917-4905-b278-b95e7851aa8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>